--- a/simulation_data/iterative_algorithm/i_error_level_10_percent_water_20.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_10_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>91.16919379333538</v>
+        <v>88.51821360445467</v>
       </c>
       <c r="D2" t="n">
-        <v>12.25328004473583</v>
+        <v>9.962248462474651</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>85.39268008671215</v>
+        <v>89.28510300316802</v>
       </c>
       <c r="D3" t="n">
-        <v>11.87023779952275</v>
+        <v>11.35413102365824</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.81753571520917</v>
+        <v>89.03781063681305</v>
       </c>
       <c r="D4" t="n">
-        <v>12.27888266228177</v>
+        <v>10.47288708899887</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.57651170304565</v>
+        <v>88.11382680211084</v>
       </c>
       <c r="D5" t="n">
-        <v>11.84472064321543</v>
+        <v>12.95807942126014</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.02851331756548</v>
+        <v>86.62001842786658</v>
       </c>
       <c r="D6" t="n">
-        <v>12.84527186416784</v>
+        <v>10.47628202717181</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.65467970502699</v>
+        <v>87.16756197534774</v>
       </c>
       <c r="D7" t="n">
-        <v>12.55377688033367</v>
+        <v>10.82874175707521</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.07811097951468</v>
+        <v>83.18084308086571</v>
       </c>
       <c r="D8" t="n">
-        <v>11.35401547757249</v>
+        <v>10.35971608155968</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.37869322703115</v>
+        <v>83.50968927245846</v>
       </c>
       <c r="D9" t="n">
-        <v>11.20657818470634</v>
+        <v>10.94604348590877</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.71519086525348</v>
+        <v>80.74765824018802</v>
       </c>
       <c r="D10" t="n">
-        <v>11.50870490458913</v>
+        <v>12.06005807622428</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.01845385828173</v>
+        <v>81.50962328952804</v>
       </c>
       <c r="D11" t="n">
-        <v>13.13497190896869</v>
+        <v>10.37276982629635</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.29683591239072</v>
+        <v>79.12329141781417</v>
       </c>
       <c r="D12" t="n">
-        <v>11.86120584973577</v>
+        <v>11.08650397405185</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>77.06312632535897</v>
+        <v>78.24705572096278</v>
       </c>
       <c r="D13" t="n">
-        <v>12.45817941139749</v>
+        <v>11.36741916851899</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>75.69456852784752</v>
+        <v>77.28587238263155</v>
       </c>
       <c r="D14" t="n">
-        <v>11.85957972031756</v>
+        <v>11.64181303603705</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.03988890579777</v>
+        <v>77.69866176159397</v>
       </c>
       <c r="D15" t="n">
-        <v>11.88254872112433</v>
+        <v>10.53097391918812</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.74318888932181</v>
+        <v>75.38030471305032</v>
       </c>
       <c r="D16" t="n">
-        <v>10.93596274114159</v>
+        <v>12.23190064032278</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.63914480037552</v>
+        <v>75.79237171521336</v>
       </c>
       <c r="D17" t="n">
-        <v>12.51033805452192</v>
+        <v>11.00583875479284</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.21168997312161</v>
+        <v>74.22012973579177</v>
       </c>
       <c r="D18" t="n">
-        <v>11.68302551103759</v>
+        <v>11.55661195616673</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.34752791299923</v>
+        <v>74.29905463611571</v>
       </c>
       <c r="D19" t="n">
-        <v>10.52547444652465</v>
+        <v>11.693135973462</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>70.75302303693361</v>
+        <v>70.19943140477824</v>
       </c>
       <c r="D20" t="n">
-        <v>10.64961618130322</v>
+        <v>10.67445113282263</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.79519540570958</v>
+        <v>69.7455013092186</v>
       </c>
       <c r="D21" t="n">
-        <v>10.83735442859649</v>
+        <v>11.98179519611058</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.47108844423011</v>
+        <v>70.68518803907918</v>
       </c>
       <c r="D22" t="n">
-        <v>11.03285310157706</v>
+        <v>11.14009839211012</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.3684003355481</v>
+        <v>67.71349506288118</v>
       </c>
       <c r="D23" t="n">
-        <v>12.38383549776132</v>
+        <v>11.47284654049191</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.65573592383942</v>
+        <v>67.21575918790325</v>
       </c>
       <c r="D24" t="n">
-        <v>10.97838413617469</v>
+        <v>9.726328884075583</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>65.97391923726045</v>
+        <v>69.96738144053832</v>
       </c>
       <c r="D25" t="n">
-        <v>12.34615978276978</v>
+        <v>11.0516679382747</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.01789699187283</v>
+        <v>65.38057893240057</v>
       </c>
       <c r="D26" t="n">
-        <v>11.81377633059929</v>
+        <v>11.87521291056104</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.8814150354597</v>
+        <v>64.41791625645432</v>
       </c>
       <c r="D27" t="n">
-        <v>12.75769989342255</v>
+        <v>10.21633843780427</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.04508062089789</v>
+        <v>65.96524515533106</v>
       </c>
       <c r="D28" t="n">
-        <v>11.06093903938972</v>
+        <v>12.87400682979238</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.74321307681891</v>
+        <v>62.89429310079147</v>
       </c>
       <c r="D29" t="n">
-        <v>13.45234035097029</v>
+        <v>10.84466204403267</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.46611635502736</v>
+        <v>59.90115976407755</v>
       </c>
       <c r="D30" t="n">
-        <v>12.32367629121338</v>
+        <v>10.62314774018753</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.33964683696799</v>
+        <v>59.83506694451736</v>
       </c>
       <c r="D31" t="n">
-        <v>11.14337610087383</v>
+        <v>11.55288358925972</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.30189083205641</v>
+        <v>60.05720101466288</v>
       </c>
       <c r="D32" t="n">
-        <v>11.35617056080048</v>
+        <v>9.100450556851911</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.99876899006399</v>
+        <v>57.70806201525238</v>
       </c>
       <c r="D33" t="n">
-        <v>12.38067491647616</v>
+        <v>11.52434748076546</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.90888349677293</v>
+        <v>56.78217330277096</v>
       </c>
       <c r="D34" t="n">
-        <v>10.73407007883048</v>
+        <v>12.22045073662799</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.37357080441796</v>
+        <v>54.50616877726718</v>
       </c>
       <c r="D35" t="n">
-        <v>13.42994761478768</v>
+        <v>11.03703164402577</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.23541379344098</v>
+        <v>57.40400232017158</v>
       </c>
       <c r="D36" t="n">
-        <v>12.84592851292689</v>
+        <v>10.99953068552224</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.2563951745011</v>
+        <v>55.08594567849206</v>
       </c>
       <c r="D37" t="n">
-        <v>12.62504508804496</v>
+        <v>10.4079188874813</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.38649692468198</v>
+        <v>53.23756710808015</v>
       </c>
       <c r="D38" t="n">
-        <v>11.76423748649475</v>
+        <v>12.17946032176772</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.46233514093666</v>
+        <v>51.45180525431622</v>
       </c>
       <c r="D39" t="n">
-        <v>13.06445414566024</v>
+        <v>11.87994019039918</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.01061113140492</v>
+        <v>52.04333951931347</v>
       </c>
       <c r="D40" t="n">
-        <v>12.2604368834486</v>
+        <v>13.98576806295583</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.3357694312385</v>
+        <v>48.3594571849525</v>
       </c>
       <c r="D41" t="n">
-        <v>10.4374759739706</v>
+        <v>11.42312065825979</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.09593632537175</v>
+        <v>49.37419885728657</v>
       </c>
       <c r="D42" t="n">
-        <v>12.19523858913962</v>
+        <v>12.35196469956323</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.03775403846626</v>
+        <v>50.56564723351628</v>
       </c>
       <c r="D43" t="n">
-        <v>10.43915239416166</v>
+        <v>11.74848828291191</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.44298826301237</v>
+        <v>46.53753108588968</v>
       </c>
       <c r="D44" t="n">
-        <v>12.04045761367181</v>
+        <v>11.36211729704476</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.87163330913936</v>
+        <v>45.90689643899486</v>
       </c>
       <c r="D45" t="n">
-        <v>11.99640754940491</v>
+        <v>10.60079145256039</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.10741052671555</v>
+        <v>44.97238261177855</v>
       </c>
       <c r="D46" t="n">
-        <v>10.0588756624904</v>
+        <v>11.73949165623905</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.97646361674501</v>
+        <v>44.31765652884517</v>
       </c>
       <c r="D47" t="n">
-        <v>11.01275880373825</v>
+        <v>12.51839177663587</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.54149135142973</v>
+        <v>44.07912742787013</v>
       </c>
       <c r="D48" t="n">
-        <v>14.11487796722714</v>
+        <v>12.39006602923114</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.06752880236765</v>
+        <v>42.58087358928956</v>
       </c>
       <c r="D49" t="n">
-        <v>13.27398610381984</v>
+        <v>14.47346364167613</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.68046482460081</v>
+        <v>39.96669384257792</v>
       </c>
       <c r="D50" t="n">
-        <v>12.08555806175005</v>
+        <v>11.12088711939092</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.50859843782968</v>
+        <v>39.99692732005866</v>
       </c>
       <c r="D51" t="n">
-        <v>12.76669201283979</v>
+        <v>13.05750724988395</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>38.69945579893951</v>
+        <v>39.96928173946136</v>
       </c>
       <c r="D52" t="n">
-        <v>12.8814718056627</v>
+        <v>12.21548852393659</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.4333152169793</v>
+        <v>38.66845798476078</v>
       </c>
       <c r="D53" t="n">
-        <v>10.48608881187224</v>
+        <v>13.26473765503398</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.84516159637113</v>
+        <v>38.00417274442445</v>
       </c>
       <c r="D54" t="n">
-        <v>11.48579214035417</v>
+        <v>12.06243465818041</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.87348988543461</v>
+        <v>39.51396627497886</v>
       </c>
       <c r="D55" t="n">
-        <v>12.63813318463089</v>
+        <v>12.22238628138922</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.02423287854894</v>
+        <v>36.19682873091635</v>
       </c>
       <c r="D56" t="n">
-        <v>11.49121382932785</v>
+        <v>12.14153788097791</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.9558301721119</v>
+        <v>34.0136342872049</v>
       </c>
       <c r="D57" t="n">
-        <v>12.07880074423677</v>
+        <v>10.3060447119291</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.2529119838332</v>
+        <v>33.98377360668377</v>
       </c>
       <c r="D58" t="n">
-        <v>11.41929823936004</v>
+        <v>11.86380733029027</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>30.91832661467014</v>
+        <v>31.73665125027539</v>
       </c>
       <c r="D59" t="n">
-        <v>12.24136743188514</v>
+        <v>12.96228065477943</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.29073069376559</v>
+        <v>32.69174999170588</v>
       </c>
       <c r="D60" t="n">
-        <v>13.08521068703569</v>
+        <v>12.60673871488664</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.86897169826759</v>
+        <v>30.58984639362718</v>
       </c>
       <c r="D61" t="n">
-        <v>11.14811328944313</v>
+        <v>11.66702221746239</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>28.97940663561864</v>
+        <v>27.44997702150155</v>
       </c>
       <c r="D62" t="n">
-        <v>11.38118275200652</v>
+        <v>12.85112794651281</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.34880212924162</v>
+        <v>30.94179724151312</v>
       </c>
       <c r="D63" t="n">
-        <v>10.87331235207618</v>
+        <v>12.08639376826939</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>30.62861374609118</v>
+        <v>27.33222292546612</v>
       </c>
       <c r="D64" t="n">
-        <v>12.3561860888068</v>
+        <v>11.90382287143037</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>29.22220205096788</v>
+        <v>27.57572473810653</v>
       </c>
       <c r="D65" t="n">
-        <v>11.36465626949296</v>
+        <v>12.68158265893269</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.23012790505976</v>
+        <v>26.99353065456681</v>
       </c>
       <c r="D66" t="n">
-        <v>12.40807663243953</v>
+        <v>12.18382817414099</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.73404168575854</v>
+        <v>24.44937209877899</v>
       </c>
       <c r="D67" t="n">
-        <v>11.91015542482311</v>
+        <v>12.02998695641211</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>22.73943611374503</v>
+        <v>24.48988166394671</v>
       </c>
       <c r="D68" t="n">
-        <v>12.68074641560967</v>
+        <v>12.38031485058176</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.79866990234136</v>
+        <v>23.99992281946702</v>
       </c>
       <c r="D69" t="n">
-        <v>10.82125749142593</v>
+        <v>13.34852247593216</v>
       </c>
     </row>
   </sheetData>
